--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_166.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,130 +488,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(43.9, 55.48)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -614,317 +613,329 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:00:32.879478', '0:00:37.291269')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:34.290634', '0:00:42.011269')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08684863523573201</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:25.480000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:40.500000', '0:00:43.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -933,272 +944,236 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:33.900000', '0:00:49.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[('0:00:02.560000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.78, 19.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(34.56, 36.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
